--- a/睡后收入/简历投递情况.xlsx
+++ b/睡后收入/简历投递情况.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -104,6 +104,48 @@
     <t>京东</t>
     <rPh sb="0" eb="1">
       <t>jing'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛氏</t>
+    <rPh sb="0" eb="1">
+      <t>ma'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京银行</t>
+    <rPh sb="0" eb="1">
+      <t>nan'jing'yin'hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农行</t>
+    <rPh sb="0" eb="1">
+      <t>nong'hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海银行</t>
+    <rPh sb="0" eb="1">
+      <t>shang'hai'yin'hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧桂园</t>
+    <rPh sb="0" eb="1">
+      <t>bi'gui'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行</t>
+    <rPh sb="0" eb="1">
+      <t>min'sheng'yin'hang</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,6 +550,54 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>105</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/睡后收入/简历投递情况.xlsx
+++ b/睡后收入/简历投递情况.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -146,6 +146,13 @@
     <t>民生银行</t>
     <rPh sb="0" eb="1">
       <t>min'sheng'yin'hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴</t>
+    <rPh sb="0" eb="1">
+      <t>di'di</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,6 +605,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/睡后收入/简历投递情况.xlsx
+++ b/睡后收入/简历投递情况.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -154,6 +154,10 @@
     <rPh sb="0" eb="1">
       <t>di'di</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傲凯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,6 +617,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>107</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
